--- a/2.Testing_types/task/defects/Valeriy_Verzhbitskiy.xlsx
+++ b/2.Testing_types/task/defects/Valeriy_Verzhbitskiy.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Проблемма</t>
   </si>
@@ -108,13 +108,52 @@
   </si>
   <si>
     <t>Не поддерживает возможность ввода строки кнопкой ввода.</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>Agreed, it's may be an issue</t>
+  </si>
+  <si>
+    <t>It works fine for me, I've tried just now and everything is ok..</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>it handles standard ‘Help -&gt;About’ item, but probably this app is lacks of help content..</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>unclear description, counted as #39</t>
+  </si>
+  <si>
+    <t>#8, inaccurate description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +172,15 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,10 +208,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,19 +526,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,113 +548,155 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
